--- a/dotNet/desktop/JsonSample/1/readme.xlsx
+++ b/dotNet/desktop/JsonSample/1/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>http://services5.arcgis.com/PnnKqtqi3qfxnaPc/ArcGIS/rest/services/LabOfflineGdbT3/FeatureServer/0/query?where=1%3D1&amp;objectIds=&amp;time=&amp;geometry=&amp;geometryType=esriGeometryEnvelope&amp;inSR=&amp;spatialRel=esriSpatialRelIntersects&amp;resultType=none&amp;distance=0.0&amp;units=esriSRUnit_Meter&amp;returnGeodetic=false&amp;outFields=*&amp;returnGeometry=true&amp;multipatchOption=xyFootprint&amp;maxAllowableOffset=&amp;geometryPrecision=&amp;outSR=&amp;returnIdsOnly=false&amp;returnCountOnly=false&amp;returnExtentOnly=false&amp;returnDistinctValues=false&amp;orderByFields=&amp;groupByFieldsForStatistics=&amp;outStatistics=&amp;resultOffset=&amp;resultRecordCount=&amp;returnZ=false&amp;returnM=false&amp;quantizationParameters=&amp;sqlFormat=none&amp;f=pjson&amp;token=</t>
   </si>
@@ -318,12 +318,224 @@
   ]
 }</t>
   </si>
+  <si>
+    <t>Json Url request2</t>
+  </si>
+  <si>
+    <t>http://services5.arcgis.com/PnnKqtqi3qfxnaPc/arcgis/rest/services/LabOfflineGdbT3/FeatureServer/0/queryAttachments?objectIds=1169,1170,1171,1172,1173,1174,1175,1176,1177,1178,1179,1180,1181,1182,1183,1184&amp;f=pjson&amp;token=</t>
+  </si>
+  <si>
+    <t>{
+  "fields" : [
+    {
+      "name" : "OBJECTID", 
+      "type" : "esriFieldTypeOID", 
+      "alias" : "OBJECTID", 
+      "sqlType" : "sqlTypeOther", 
+      "domain" : null, 
+      "defaultValue" : null
+    }, 
+    {
+      "name" : "GlobalID", 
+      "type" : "esriFieldTypeGlobalID", 
+      "alias" : "GlobalID", 
+      "sqlType" : "sqlTypeOther", 
+      "length" : 38, 
+      "domain" : null
+    }
+  ], 
+  "attachmentGroups" : [
+    {
+      "parentObjectId" : 1169, 
+      "parentGlobalId" : "f5f0fe49-0d01-4254-bf42-e1cb34d1187a", 
+      "attachmentInfos" : [
+        {
+          "id" : 96, 
+          "globalId" : "be7495cc-f392-46b1-940f-7121180627fc", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 206764, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1170, 
+      "parentGlobalId" : "4ed9c254-b8ec-420a-8a27-321d0af48866", 
+      "attachmentInfos" : [
+        {
+          "id" : 97, 
+          "globalId" : "434d0cae-a4c1-4999-87b4-1ee64cf606e3", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 609029, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1171, 
+      "parentGlobalId" : "4d214cfc-2626-499d-a747-2e8f2d216606", 
+      "attachmentInfos" : [
+        {
+          "id" : 98, 
+          "globalId" : "c4615073-c7df-46dd-9fef-4fcd05b644ae", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 648260, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1172, 
+      "parentGlobalId" : "a41fcf88-7c58-41ab-95f3-62340fa827a5", 
+      "attachmentInfos" : [
+        {
+          "id" : 99, 
+          "globalId" : "e01a005f-2ad4-4f58-9bef-6fa7e985a25c", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 588344, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1173, 
+      "parentGlobalId" : "ee811c17-4b96-4c12-afe5-111a59b535d8", 
+      "attachmentInfos" : [
+        {
+          "id" : 100, 
+          "globalId" : "b35a9e1c-f424-4c6c-9a84-332168e34036", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 650790, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1176, 
+      "parentGlobalId" : "8a45d50a-940f-431a-adc8-1e4f33944416", 
+      "attachmentInfos" : [
+        {
+          "id" : 101, 
+          "globalId" : "9da76763-bfc0-4ffa-a6c6-23e04a0f1a5b", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 603547, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1177, 
+      "parentGlobalId" : "29f39782-3bda-48e4-b0c5-f66732fc06e3", 
+      "attachmentInfos" : [
+        {
+          "id" : 102, 
+          "globalId" : "7239deaa-9182-41d4-be38-47843b97388a", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 647561, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1178, 
+      "parentGlobalId" : "37de1bde-67e5-449a-9e0e-85efc58d94eb", 
+      "attachmentInfos" : [
+        {
+          "id" : 103, 
+          "globalId" : "6ecdb19b-f52c-4273-9b84-81c921de9883", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 688391, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1180, 
+      "parentGlobalId" : "e5f579cf-4e0d-4b1a-b83e-a2ae867cb575", 
+      "attachmentInfos" : [
+        {
+          "id" : 104, 
+          "globalId" : "8e80c451-ffa0-4dfe-8021-afdfbed6f09b", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 526378, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1181, 
+      "parentGlobalId" : "5b8293ae-a562-466d-ba31-98994ebcdede", 
+      "attachmentInfos" : [
+        {
+          "id" : 105, 
+          "globalId" : "0b223829-d888-404e-9811-b60cf5709905", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 483106, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1182, 
+      "parentGlobalId" : "98225d2e-bb6c-4772-accc-0fc8be84206f", 
+      "attachmentInfos" : [
+        {
+          "id" : 106, 
+          "globalId" : "76f6fcdf-9c50-469a-be8e-253ed1f16b67", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 577698, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1183, 
+      "parentGlobalId" : "0bd696e2-68e8-4ccc-97b4-b963d5beb556", 
+      "attachmentInfos" : [
+        {
+          "id" : 107, 
+          "globalId" : "a4038103-4254-4767-a94d-0929bf3ca549", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 662714, 
+          "keywords" : ""
+        }
+      ]
+    }, 
+    {
+      "parentObjectId" : 1184, 
+      "parentGlobalId" : "43b8bc07-d87d-4adf-8823-d6ee02fb11ec", 
+      "attachmentInfos" : [
+        {
+          "id" : 108, 
+          "globalId" : "a5f847c5-c8ed-446d-b12a-a056b835c690", 
+          "name" : "Photo1.jpg", 
+          "contentType" : "image/jpeg", 
+          "size" : 670247, 
+          "keywords" : ""
+        }
+      ]
+    }
+  ]
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +545,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -354,16 +573,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,9 +932,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
